--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadisharifi/Documents/CSE6242/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadisharifi/Documents/CSE6242/Project/proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{39292AD8-D7FC-0B48-BAA5-E91100197FBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAE6835-6AB0-5C49-A84A-608B170D2C7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22180" yWindow="-19240" windowWidth="35120" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -906,7 +906,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -995,15 +994,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,6 +1008,16 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1649,13 +1649,13 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
@@ -1696,139 +1696,139 @@
       <c r="A3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89">
+      <c r="D3" s="92"/>
+      <c r="E3" s="94">
         <f>DATE(2019, 2, 15)</f>
         <v>43511</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:78" ht="30" customHeight="1">
       <c r="A4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="90">
+      <c r="D4" s="92"/>
+      <c r="E4" s="86">
         <v>1</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="I4" s="92">
+      <c r="F4" s="87"/>
+      <c r="I4" s="88">
         <f>I5</f>
         <v>43507</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="92">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f>P5</f>
         <v>43514</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="92">
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f>W5</f>
         <v>43521</v>
       </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f>AD5</f>
         <v>43528</v>
       </c>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="92">
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f>AK5</f>
         <v>43535</v>
       </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="92">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f>AR5</f>
         <v>43542</v>
       </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="92">
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f>AY5</f>
         <v>43549</v>
       </c>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="92">
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f>BF5</f>
         <v>43556</v>
       </c>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94"/>
-      <c r="BM4" s="92">
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
+      <c r="BM4" s="88">
         <f>BM5</f>
         <v>43563</v>
       </c>
-      <c r="BN4" s="93"/>
-      <c r="BO4" s="93"/>
-      <c r="BP4" s="93"/>
-      <c r="BQ4" s="93"/>
-      <c r="BR4" s="93"/>
-      <c r="BS4" s="94"/>
-      <c r="BT4" s="92">
+      <c r="BN4" s="89"/>
+      <c r="BO4" s="89"/>
+      <c r="BP4" s="89"/>
+      <c r="BQ4" s="89"/>
+      <c r="BR4" s="89"/>
+      <c r="BS4" s="90"/>
+      <c r="BT4" s="88">
         <f>BT5</f>
         <v>43570</v>
       </c>
-      <c r="BU4" s="93"/>
-      <c r="BV4" s="93"/>
-      <c r="BW4" s="93"/>
-      <c r="BX4" s="93"/>
-      <c r="BY4" s="93"/>
-      <c r="BZ4" s="94"/>
+      <c r="BU4" s="89"/>
+      <c r="BV4" s="89"/>
+      <c r="BW4" s="89"/>
+      <c r="BX4" s="89"/>
+      <c r="BY4" s="89"/>
+      <c r="BZ4" s="90"/>
     </row>
     <row r="5" spans="1:78" ht="15" customHeight="1">
       <c r="A5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="9">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43507</v>
@@ -2114,19 +2114,19 @@
       <c r="A6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
@@ -2499,7 +2499,7 @@
       <c r="A8" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="52"/>
@@ -2586,20 +2586,20 @@
       <c r="A9" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="58">
         <v>0.5</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="59">
         <f>Project_Start</f>
         <v>43511</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="59">
         <f>E9+8</f>
         <v>43519</v>
       </c>
@@ -2683,20 +2683,20 @@
       <c r="A10" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="58">
         <v>0.6</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="59">
         <f>Project_Start</f>
         <v>43511</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="59">
         <f>E10+8</f>
         <v>43519</v>
       </c>
@@ -2778,20 +2778,20 @@
     </row>
     <row r="11" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="44"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="58">
         <v>0.5</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="59">
         <f>Project_Start</f>
         <v>43511</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="59">
         <f>E11+8</f>
         <v>43519</v>
       </c>
@@ -2873,20 +2873,20 @@
     </row>
     <row r="12" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="44"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="58">
         <v>0.25</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="59">
         <f>Project_Start</f>
         <v>43511</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="59">
         <f>E12+8</f>
         <v>43519</v>
       </c>
@@ -2968,20 +2968,20 @@
     </row>
     <row r="13" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="44"/>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="58">
         <v>0.2</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="59">
         <f>Project_Start</f>
         <v>43511</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="59">
         <f>E13+8</f>
         <v>43519</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="A14" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="61" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="53"/>
@@ -3150,20 +3150,20 @@
     </row>
     <row r="15" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="45"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="66">
         <v>0.5</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="67">
         <f>E13+6</f>
         <v>43517</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="67">
         <f>E15+7</f>
         <v>43524</v>
       </c>
@@ -3245,20 +3245,20 @@
     </row>
     <row r="16" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="44"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="66">
         <v>0</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="67">
         <f>E13+6</f>
         <v>43517</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="67">
         <f>E15+7</f>
         <v>43524</v>
       </c>
@@ -3342,13 +3342,13 @@
       <c r="A17" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15" t="str">
         <f t="shared" si="16"/>
@@ -3427,21 +3427,21 @@
     </row>
     <row r="18" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="44"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="75">
         <v>0</v>
       </c>
-      <c r="E18" s="77">
+      <c r="E18" s="76">
         <f>F16+1</f>
         <v>43525</v>
       </c>
-      <c r="F18" s="77">
-        <f>E18+15</f>
+      <c r="F18" s="76">
+        <f t="shared" ref="F18:F24" si="17">E18+15</f>
         <v>43540</v>
       </c>
       <c r="G18" s="15"/>
@@ -3522,21 +3522,21 @@
     </row>
     <row r="19" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="44"/>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="75">
         <v>0</v>
       </c>
-      <c r="E19" s="77">
+      <c r="E19" s="76">
         <f>F16+1</f>
         <v>43525</v>
       </c>
-      <c r="F19" s="77">
-        <f>E19+15</f>
+      <c r="F19" s="76">
+        <f t="shared" si="17"/>
         <v>43540</v>
       </c>
       <c r="G19" s="15"/>
@@ -3617,21 +3617,21 @@
     </row>
     <row r="20" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="44"/>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="75">
         <v>0</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="76">
         <f>F16+1</f>
         <v>43525</v>
       </c>
-      <c r="F20" s="77">
-        <f>E20+15</f>
+      <c r="F20" s="76">
+        <f t="shared" si="17"/>
         <v>43540</v>
       </c>
       <c r="G20" s="15"/>
@@ -3712,21 +3712,21 @@
     </row>
     <row r="21" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="44"/>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="75">
         <v>0</v>
       </c>
-      <c r="E21" s="77">
+      <c r="E21" s="76">
         <f>F16+1</f>
         <v>43525</v>
       </c>
-      <c r="F21" s="77">
-        <f>E21+15</f>
+      <c r="F21" s="76">
+        <f t="shared" si="17"/>
         <v>43540</v>
       </c>
       <c r="G21" s="15"/>
@@ -3807,21 +3807,21 @@
     </row>
     <row r="22" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="44"/>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="75">
         <v>0</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E22" s="76">
         <f>F16+1</f>
         <v>43525</v>
       </c>
-      <c r="F22" s="77">
-        <f>E22+15</f>
+      <c r="F22" s="76">
+        <f t="shared" si="17"/>
         <v>43540</v>
       </c>
       <c r="G22" s="15"/>
@@ -3899,21 +3899,21 @@
     </row>
     <row r="23" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="44"/>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="75">
         <v>0</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="76">
         <f>F21</f>
         <v>43540</v>
       </c>
-      <c r="F23" s="77">
-        <f>E23+15</f>
+      <c r="F23" s="76">
+        <f t="shared" si="17"/>
         <v>43555</v>
       </c>
       <c r="G23" s="15"/>
@@ -3991,21 +3991,21 @@
     </row>
     <row r="24" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="44"/>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="75">
         <v>0</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="76">
         <f>F22</f>
         <v>43540</v>
       </c>
-      <c r="F24" s="77">
-        <f>E24+15</f>
+      <c r="F24" s="76">
+        <f t="shared" si="17"/>
         <v>43555</v>
       </c>
       <c r="G24" s="15"/>
@@ -4085,13 +4085,13 @@
       <c r="A25" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15" t="str">
         <f t="shared" si="16"/>
@@ -4170,20 +4170,20 @@
     </row>
     <row r="26" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="44"/>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="84">
         <v>0</v>
       </c>
-      <c r="E26" s="86">
+      <c r="E26" s="85">
         <f>F24</f>
         <v>43555</v>
       </c>
-      <c r="F26" s="86">
+      <c r="F26" s="85">
         <f>E26+3</f>
         <v>43558</v>
       </c>
@@ -4265,20 +4265,20 @@
     </row>
     <row r="27" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="44"/>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="85">
+      <c r="D27" s="84">
         <v>0</v>
       </c>
-      <c r="E27" s="86">
+      <c r="E27" s="85">
         <f>F24</f>
         <v>43555</v>
       </c>
-      <c r="F27" s="86">
+      <c r="F27" s="85">
         <f>E27+3</f>
         <v>43558</v>
       </c>
@@ -4360,20 +4360,20 @@
     </row>
     <row r="28" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="44"/>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="85">
+      <c r="D28" s="84">
         <v>0</v>
       </c>
-      <c r="E28" s="86">
+      <c r="E28" s="85">
         <f>F27</f>
         <v>43558</v>
       </c>
-      <c r="F28" s="86">
+      <c r="F28" s="85">
         <f>E28+13</f>
         <v>43571</v>
       </c>
@@ -4455,20 +4455,20 @@
     </row>
     <row r="29" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="44"/>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="85">
+      <c r="D29" s="84">
         <v>0</v>
       </c>
-      <c r="E29" s="86">
+      <c r="E29" s="85">
         <f>F27</f>
         <v>43558</v>
       </c>
-      <c r="F29" s="86">
+      <c r="F29" s="85">
         <f>E29+13</f>
         <v>43571</v>
       </c>
@@ -4550,20 +4550,20 @@
     </row>
     <row r="30" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="44"/>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="85">
+      <c r="D30" s="84">
         <v>0</v>
       </c>
-      <c r="E30" s="86">
+      <c r="E30" s="85">
         <f>F27</f>
         <v>43558</v>
       </c>
-      <c r="F30" s="86">
+      <c r="F30" s="85">
         <f>E30+13</f>
         <v>43571</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadisharifi/Documents/CSE6242/Project/proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAE6835-6AB0-5C49-A84A-608B170D2C7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45BB2B0-C1AB-AA41-99FA-65A50248BC25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22180" yWindow="-19240" windowWidth="35120" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4920,7 +4920,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="45" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadisharifi/Documents/CSE6242/Project/proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45BB2B0-C1AB-AA41-99FA-65A50248BC25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F00488-7B94-5646-8345-ED483B2AECD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22180" yWindow="-19240" windowWidth="35120" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16860" yWindow="-20600" windowWidth="35120" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <t>Social Media</t>
   </si>
   <si>
-    <t>Gaming/Technology</t>
-  </si>
-  <si>
     <t>Physical Activity</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Lieteratur Review on Relationship between Six Habit Factors and Anxiety/Depression</t>
+  </si>
+  <si>
+    <t>Technology/Education</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1649,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -1670,7 +1670,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1686,7 +1686,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="47" t="s">
         <v>17</v>
@@ -2500,7 +2500,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="16"/>
@@ -2593,7 +2593,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="59">
         <f>Project_Start</f>
@@ -2684,13 +2684,13 @@
         <v>36</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="58">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E10" s="59">
         <f>Project_Start</f>
@@ -2785,7 +2785,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="59">
         <f>Project_Start</f>
@@ -2874,13 +2874,13 @@
     <row r="12" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="44"/>
       <c r="B12" s="56" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="58">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E12" s="59">
         <f>Project_Start</f>
@@ -2969,13 +2969,13 @@
     <row r="13" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="44"/>
       <c r="B13" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="58">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="59">
         <f>Project_Start</f>
@@ -3066,7 +3066,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="19"/>
@@ -3151,13 +3151,13 @@
     <row r="15" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="45"/>
       <c r="B15" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="67">
         <f>E13+6</f>
@@ -3246,10 +3246,10 @@
     <row r="16" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="44"/>
       <c r="B16" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="66">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="69"/>
       <c r="D17" s="70"/>
@@ -3523,7 +3523,7 @@
     <row r="19" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="44"/>
       <c r="B19" s="73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="74" t="s">
         <v>39</v>
@@ -3713,7 +3713,7 @@
     <row r="21" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="44"/>
       <c r="B21" s="73" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C21" s="74" t="s">
         <v>41</v>
@@ -3808,7 +3808,7 @@
     <row r="22" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="44"/>
       <c r="B22" s="73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="74" t="s">
         <v>42</v>
@@ -3900,10 +3900,10 @@
     <row r="23" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="44"/>
       <c r="B23" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="75">
         <v>0</v>
@@ -3992,7 +3992,7 @@
     <row r="24" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="44"/>
       <c r="B24" s="73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="74" t="s">
         <v>38</v>
@@ -4086,7 +4086,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="79"/>
@@ -4171,10 +4171,10 @@
     <row r="26" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="44"/>
       <c r="B26" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="84">
         <v>0</v>
@@ -4266,10 +4266,10 @@
     <row r="27" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="44"/>
       <c r="B27" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="84">
         <v>0</v>
@@ -4361,10 +4361,10 @@
     <row r="28" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="44"/>
       <c r="B28" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="84">
         <v>0</v>
@@ -4456,10 +4456,10 @@
     <row r="29" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="44"/>
       <c r="B29" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="84">
         <v>0</v>
@@ -4551,10 +4551,10 @@
     <row r="30" spans="1:78" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="44"/>
       <c r="B30" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="84">
         <v>0</v>
